--- a/TimeComplexity.xlsx
+++ b/TimeComplexity.xlsx
@@ -354,7 +354,7 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>5.127516508102417</v>
+        <v>1.225201368331909</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -362,7 +362,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2.525058507919312</v>
+        <v>0.673933744430542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -370,7 +370,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2.164885520935059</v>
+        <v>0.6634979248046875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -378,7 +378,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>1.16518759727478</v>
+        <v>0.4366309642791748</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -386,7 +386,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>1.129423141479492</v>
+        <v>0.4238307476043701</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -394,7 +394,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.7839105129241943</v>
+        <v>0.2824745178222656</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -402,7 +402,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>0.7545478343963623</v>
+        <v>0.3135778903961182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -410,7 +410,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.5629737377166748</v>
+        <v>0.2656137943267822</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -418,7 +418,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.5179803371429443</v>
+        <v>0.2440359592437744</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -426,7 +426,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>0.4592571258544922</v>
+        <v>0.2256584167480469</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -434,7 +434,7 @@
         <v>144</v>
       </c>
       <c r="B11">
-        <v>0.4469382762908936</v>
+        <v>0.2186989784240723</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -442,7 +442,7 @@
         <v>169</v>
       </c>
       <c r="B12">
-        <v>0.3784840106964111</v>
+        <v>0.2186989784240723</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -450,7 +450,7 @@
         <v>196</v>
       </c>
       <c r="B13">
-        <v>0.3755958080291748</v>
+        <v>0.1828961372375488</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -458,7 +458,7 @@
         <v>225</v>
       </c>
       <c r="B14">
-        <v>0.3436706066131592</v>
+        <v>0.2031269073486328</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -466,7 +466,7 @@
         <v>256</v>
       </c>
       <c r="B15">
-        <v>0.3124253749847412</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -474,7 +474,7 @@
         <v>289</v>
       </c>
       <c r="B16">
-        <v>0.2824356555938721</v>
+        <v>0.2053728103637695</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -482,7 +482,7 @@
         <v>324</v>
       </c>
       <c r="B17">
-        <v>0.2836213111877441</v>
+        <v>0.1874556541442871</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -490,7 +490,7 @@
         <v>361</v>
       </c>
       <c r="B18">
-        <v>0.2682919502258301</v>
+        <v>0.1718761920928955</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -498,7 +498,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <v>0.3132169246673584</v>
+        <v>0.1718404293060303</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -506,7 +506,7 @@
         <v>441</v>
       </c>
       <c r="B20">
-        <v>0.2811856269836426</v>
+        <v>0.2031259536743164</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -514,7 +514,7 @@
         <v>484</v>
       </c>
       <c r="B21">
-        <v>0.2499408721923828</v>
+        <v>0.1881356239318848</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -522,7 +522,7 @@
         <v>529</v>
       </c>
       <c r="B22">
-        <v>0.2522802352905273</v>
+        <v>0.1718320846557617</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -530,7 +530,7 @@
         <v>576</v>
       </c>
       <c r="B23">
-        <v>0.2470359802246094</v>
+        <v>0.1718344688415527</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -538,7 +538,7 @@
         <v>625</v>
       </c>
       <c r="B24">
-        <v>0.2499411106109619</v>
+        <v>0.1874167919158936</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -546,7 +546,7 @@
         <v>676</v>
       </c>
       <c r="B25">
-        <v>0.2352888584136963</v>
+        <v>0.2187423706054688</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -554,7 +554,7 @@
         <v>729</v>
       </c>
       <c r="B26">
-        <v>0.2252910137176514</v>
+        <v>0.1874105930328369</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -562,7 +562,7 @@
         <v>784</v>
       </c>
       <c r="B27">
-        <v>0.245347261428833</v>
+        <v>0.1965854167938232</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -570,7 +570,7 @@
         <v>841</v>
       </c>
       <c r="B28">
-        <v>0.2655162811279297</v>
+        <v>0.1717908382415771</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -578,7 +578,7 @@
         <v>900</v>
       </c>
       <c r="B29">
-        <v>0.237802267074585</v>
+        <v>0.2042620182037354</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -586,7 +586,7 @@
         <v>961</v>
       </c>
       <c r="B30">
-        <v>0.2390398979187012</v>
+        <v>0.1874978542327881</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -594,7 +594,7 @@
         <v>1024</v>
       </c>
       <c r="B31">
-        <v>0.2186994552612305</v>
+        <v>0.2008237838745117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -602,7 +602,7 @@
         <v>1089</v>
       </c>
       <c r="B32">
-        <v>0.2523188591003418</v>
+        <v>0.2073409557342529</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -610,7 +610,7 @@
         <v>1156</v>
       </c>
       <c r="B33">
-        <v>0.2200510501861572</v>
+        <v>0.2342946529388428</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -618,7 +618,7 @@
         <v>1225</v>
       </c>
       <c r="B34">
-        <v>0.2186973094940186</v>
+        <v>0.1874580383300781</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -626,7 +626,7 @@
         <v>1296</v>
       </c>
       <c r="B35">
-        <v>0.2146267890930176</v>
+        <v>0.1897637844085693</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -634,7 +634,7 @@
         <v>1369</v>
       </c>
       <c r="B36">
-        <v>0.2523128986358643</v>
+        <v>0.2217569351196289</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -642,7 +642,7 @@
         <v>1444</v>
       </c>
       <c r="B37">
-        <v>0.2186987400054932</v>
+        <v>0.3905341625213623</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -650,7 +650,7 @@
         <v>1521</v>
       </c>
       <c r="B38">
-        <v>0.21921706199646</v>
+        <v>0.3592891693115234</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -658,7 +658,7 @@
         <v>1600</v>
       </c>
       <c r="B39">
-        <v>0.2209291458129883</v>
+        <v>0.2968053817749023</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -666,7 +666,7 @@
         <v>1681</v>
       </c>
       <c r="B40">
-        <v>0.2343645095825195</v>
+        <v>0.2968025207519531</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -674,7 +674,7 @@
         <v>1764</v>
       </c>
       <c r="B41">
-        <v>0.2668654918670654</v>
+        <v>0.3280911445617676</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -682,7 +682,7 @@
         <v>1849</v>
       </c>
       <c r="B42">
-        <v>0.2221598625183105</v>
+        <v>0.3598237037658691</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -690,7 +690,7 @@
         <v>1936</v>
       </c>
       <c r="B43">
-        <v>0.2299215793609619</v>
+        <v>0.2811827659606934</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -698,7 +698,7 @@
         <v>2025</v>
       </c>
       <c r="B44">
-        <v>0.2159566879272461</v>
+        <v>0.2053289413452148</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -706,7 +706,7 @@
         <v>2116</v>
       </c>
       <c r="B45">
-        <v>0.265510082244873</v>
+        <v>0.2031190395355225</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -714,7 +714,7 @@
         <v>2209</v>
       </c>
       <c r="B46">
-        <v>0.2360138893127441</v>
+        <v>0.2499458789825439</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -722,7 +722,7 @@
         <v>2304</v>
       </c>
       <c r="B47">
-        <v>0.2371940612792969</v>
+        <v>0.2209124565124512</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -730,7 +730,7 @@
         <v>2401</v>
       </c>
       <c r="B48">
-        <v>0.2343206405639648</v>
+        <v>0.2916920185089111</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -738,7 +738,7 @@
         <v>2500</v>
       </c>
       <c r="B49">
-        <v>0.2503058910369873</v>
+        <v>0.2499880790710449</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -746,7 +746,7 @@
         <v>2601</v>
       </c>
       <c r="B50">
-        <v>0.2833817005157471</v>
+        <v>0.2572031021118164</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -754,7 +754,7 @@
         <v>2704</v>
       </c>
       <c r="B51">
-        <v>0.2499885559082031</v>
+        <v>0.2296268939971924</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -762,7 +762,7 @@
         <v>2809</v>
       </c>
       <c r="B52">
-        <v>0.2443921566009521</v>
+        <v>0.2187421321868896</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -770,7 +770,7 @@
         <v>2916</v>
       </c>
       <c r="B53">
-        <v>0.2413980960845947</v>
+        <v>0.2342765331268311</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -778,7 +778,7 @@
         <v>3025</v>
       </c>
       <c r="B54">
-        <v>0.2811412811279297</v>
+        <v>0.2268002033233643</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -786,7 +786,7 @@
         <v>3136</v>
       </c>
       <c r="B55">
-        <v>0.249948263168335</v>
+        <v>0.2343575954437256</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -794,7 +794,7 @@
         <v>3249</v>
       </c>
       <c r="B56">
-        <v>0.2502334117889404</v>
+        <v>0.3280549049377441</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -802,7 +802,7 @@
         <v>3364</v>
       </c>
       <c r="B57">
-        <v>0.2499411106109619</v>
+        <v>0.3592801094055176</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -810,7 +810,7 @@
         <v>3481</v>
       </c>
       <c r="B58">
-        <v>0.2968053817749023</v>
+        <v>0.2200515270233154</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -818,7 +818,7 @@
         <v>3600</v>
       </c>
       <c r="B59">
-        <v>0.2522907257080078</v>
+        <v>0.2824954986572266</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -826,7 +826,7 @@
         <v>3721</v>
       </c>
       <c r="B60">
-        <v>0.2499783039093018</v>
+        <v>0.2499597072601318</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -834,7 +834,7 @@
         <v>3844</v>
       </c>
       <c r="B61">
-        <v>0.2655625343322754</v>
+        <v>0.2499434947967529</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -842,7 +842,7 @@
         <v>3969</v>
       </c>
       <c r="B62">
-        <v>0.2689769268035889</v>
+        <v>0.252213716506958</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -850,7 +850,7 @@
         <v>4096</v>
       </c>
       <c r="B63">
-        <v>0.3217563629150391</v>
+        <v>0.2982738018035889</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -858,7 +858,7 @@
         <v>4225</v>
       </c>
       <c r="B64">
-        <v>0.2655200958251953</v>
+        <v>0.2498953342437744</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -866,7 +866,7 @@
         <v>4356</v>
       </c>
       <c r="B65">
-        <v>0.266852855682373</v>
+        <v>0.240556001663208</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -874,7 +874,7 @@
         <v>4489</v>
       </c>
       <c r="B66">
-        <v>0.2655189037322998</v>
+        <v>0.2523820400238037</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -882,7 +882,7 @@
         <v>4624</v>
       </c>
       <c r="B67">
-        <v>0.3060297966003418</v>
+        <v>0.3200592994689941</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -890,7 +890,7 @@
         <v>4761</v>
       </c>
       <c r="B68">
-        <v>0.2688870429992676</v>
+        <v>0.2656059265136719</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -898,7 +898,7 @@
         <v>4900</v>
       </c>
       <c r="B69">
-        <v>0.2717628479003906</v>
+        <v>0.2644858360290527</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -906,7 +906,7 @@
         <v>5041</v>
       </c>
       <c r="B70">
-        <v>0.2968063354492188</v>
+        <v>0.3920707702636719</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -914,7 +914,7 @@
         <v>5184</v>
       </c>
       <c r="B71">
-        <v>0.3461930751800537</v>
+        <v>0.3146500587463379</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -922,7 +922,7 @@
         <v>5329</v>
       </c>
       <c r="B72">
-        <v>0.2811727523803711</v>
+        <v>0.2680401802062988</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -930,7 +930,7 @@
         <v>5476</v>
       </c>
       <c r="B73">
-        <v>0.2967939376831055</v>
+        <v>0.2811317443847656</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -938,7 +938,7 @@
         <v>5625</v>
       </c>
       <c r="B74">
-        <v>0.2985653877258301</v>
+        <v>0.2834630012512207</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -946,7 +946,7 @@
         <v>5776</v>
       </c>
       <c r="B75">
-        <v>0.3459117412567139</v>
+        <v>0.3419661521911621</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -954,7 +954,7 @@
         <v>5929</v>
       </c>
       <c r="B76">
-        <v>0.2968189716339111</v>
+        <v>0.2845046520233154</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -962,7 +962,7 @@
         <v>6084</v>
       </c>
       <c r="B77">
-        <v>0.3023347854614258</v>
+        <v>0.2825427055358887</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -970,7 +970,7 @@
         <v>6241</v>
       </c>
       <c r="B78">
-        <v>0.300868034362793</v>
+        <v>0.2744927406311035</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -978,7 +978,7 @@
         <v>6400</v>
       </c>
       <c r="B79">
-        <v>0.3610250949859619</v>
+        <v>0.4865372180938721</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -986,7 +986,7 @@
         <v>6561</v>
       </c>
       <c r="B80">
-        <v>0.3124740123748779</v>
+        <v>0.3939187526702881</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -994,7 +994,7 @@
         <v>6724</v>
       </c>
       <c r="B81">
-        <v>0.3302586078643799</v>
+        <v>0.5619871616363525</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>6889</v>
       </c>
       <c r="B82">
-        <v>0.3148908615112305</v>
+        <v>0.4393820762634277</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>7056</v>
       </c>
       <c r="B83">
-        <v>0.3123824596405029</v>
+        <v>0.4603040218353271</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>7225</v>
       </c>
       <c r="B84">
-        <v>0.3150162696838379</v>
+        <v>0.3866007328033447</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>7396</v>
       </c>
       <c r="B85">
-        <v>0.3285377025604248</v>
+        <v>0.3905830383300781</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>7569</v>
       </c>
       <c r="B86">
-        <v>0.3772022724151611</v>
+        <v>0.4408712387084961</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>7744</v>
       </c>
       <c r="B87">
-        <v>0.3280456066131592</v>
+        <v>0.5415036678314209</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>7921</v>
       </c>
       <c r="B88">
-        <v>0.330416202545166</v>
+        <v>0.3519353866577148</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>8100</v>
       </c>
       <c r="B89">
-        <v>0.3459033966064453</v>
+        <v>0.4085123538970947</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>8281</v>
       </c>
       <c r="B90">
-        <v>0.3929240703582764</v>
+        <v>0.4875466823577881</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>8464</v>
       </c>
       <c r="B91">
-        <v>0.3592450618743896</v>
+        <v>0.4387359619140625</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>8649</v>
       </c>
       <c r="B92">
-        <v>0.3581430912017822</v>
+        <v>0.5484719276428223</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>8836</v>
       </c>
       <c r="B93">
-        <v>0.3419034481048584</v>
+        <v>0.7046010494232178</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>9025</v>
       </c>
       <c r="B94">
-        <v>0.4236242771148682</v>
+        <v>0.6428794860839844</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>9216</v>
       </c>
       <c r="B95">
-        <v>0.5245673656463623</v>
+        <v>0.4860072135925293</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>9409</v>
       </c>
       <c r="B96">
-        <v>0.486757755279541</v>
+        <v>0.4868741035461426</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>9604</v>
       </c>
       <c r="B97">
-        <v>0.4223082065582275</v>
+        <v>0.4386861324310303</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>9801</v>
       </c>
       <c r="B98">
-        <v>0.3771605491638184</v>
+        <v>0.4075639247894287</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>10000</v>
       </c>
       <c r="B99">
-        <v>0.3595321178436279</v>
+        <v>0.4085557460784912</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>0.03124332427978516</v>
+        <v>0.01558065414428711</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.01562094688415527</v>
+        <v>0.01562356948852539</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.01562190055847168</v>
+        <v>0.01561927795410156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.01562094688415527</v>
+        <v>0.01567411422729492</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>0.01562237739562988</v>
+        <v>0.01561832427978516</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.01566243171691895</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>0.01561951637268066</v>
+        <v>0.01565933227539062</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.01566290855407715</v>
+        <v>0.01562070846557617</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.01561713218688965</v>
+        <v>0.01561927795410156</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>0.03128790855407715</v>
+        <v>0.01566600799560547</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>144</v>
       </c>
       <c r="B11">
-        <v>0.008222103118896484</v>
+        <v>0.03256607055664062</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>169</v>
       </c>
       <c r="B12">
-        <v>0.01420021057128906</v>
+        <v>0.01557683944702148</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>196</v>
       </c>
       <c r="B13">
-        <v>0.0171971321105957</v>
+        <v>0.01561903953552246</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>225</v>
       </c>
       <c r="B14">
-        <v>0.01562356948852539</v>
+        <v>0.01562047004699707</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>256</v>
       </c>
       <c r="B15">
-        <v>0.03124475479125977</v>
+        <v>0.01561641693115234</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>289</v>
       </c>
       <c r="B16">
-        <v>0.01566672325134277</v>
+        <v>0.01562094688415527</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>324</v>
       </c>
       <c r="B17">
-        <v>0.01562047004699707</v>
+        <v>0.01566576957702637</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>361</v>
       </c>
       <c r="B18">
-        <v>0.01565432548522949</v>
+        <v>0.0156257152557373</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <v>0.03196144104003906</v>
+        <v>0.01562261581420898</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>441</v>
       </c>
       <c r="B20">
-        <v>0.03119897842407227</v>
+        <v>0.01562237739562988</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>484</v>
       </c>
       <c r="B21">
-        <v>0.03124308586120605</v>
+        <v>0.01562070846557617</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>529</v>
       </c>
       <c r="B22">
-        <v>0.01567173004150391</v>
+        <v>0.0156245231628418</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>576</v>
       </c>
       <c r="B23">
-        <v>0.01802206039428711</v>
+        <v>0.01562190055847168</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>625</v>
       </c>
       <c r="B24">
-        <v>0.03124260902404785</v>
+        <v>0.04200577735900879</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>676</v>
       </c>
       <c r="B25">
-        <v>0.01613450050354004</v>
+        <v>0.01557826995849609</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>729</v>
       </c>
       <c r="B26">
-        <v>0.01562261581420898</v>
+        <v>0.01567316055297852</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>784</v>
       </c>
       <c r="B27">
-        <v>0.01317977905273438</v>
+        <v>0.01391720771789551</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>841</v>
       </c>
       <c r="B28">
-        <v>0.01562261581420898</v>
+        <v>0.01562070846557617</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>900</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.01562380790710449</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>961</v>
       </c>
       <c r="B30">
-        <v>0.01314067840576172</v>
+        <v>0.01562285423278809</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>1024</v>
       </c>
       <c r="B31">
-        <v>0.01561903953552246</v>
+        <v>0.01557540893554688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>1089</v>
       </c>
       <c r="B32">
-        <v>0.01562309265136719</v>
+        <v>0.04686331748962402</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>1156</v>
       </c>
       <c r="B33">
-        <v>0.01561641693115234</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>1225</v>
       </c>
       <c r="B34">
-        <v>0.01562237739562988</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>1296</v>
       </c>
       <c r="B35">
-        <v>0.01557302474975586</v>
+        <v>0.01557826995849609</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>1369</v>
       </c>
       <c r="B36">
-        <v>0.01562333106994629</v>
+        <v>0.01556801795959473</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>1444</v>
       </c>
       <c r="B37">
-        <v>0.01562118530273438</v>
+        <v>0.01562166213989258</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>1521</v>
       </c>
       <c r="B38">
-        <v>0.01557803153991699</v>
+        <v>0.03124260902404785</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>1600</v>
       </c>
       <c r="B39">
-        <v>0.01566696166992188</v>
+        <v>0.03129410743713379</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>1681</v>
       </c>
       <c r="B40">
-        <v>0.01562190055847168</v>
+        <v>0.03124332427978516</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>1764</v>
       </c>
       <c r="B41">
-        <v>0.01562118530273438</v>
+        <v>0.01557683944702148</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>1849</v>
       </c>
       <c r="B42">
-        <v>0.01595497131347656</v>
+        <v>0.0624849796295166</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>1936</v>
       </c>
       <c r="B43">
-        <v>0.005984067916870117</v>
+        <v>0.0155794620513916</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>2025</v>
       </c>
       <c r="B44">
-        <v>0.01566123962402344</v>
+        <v>0.01562047004699707</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>2116</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.01558160781860352</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>2209</v>
       </c>
       <c r="B46">
-        <v>0.01566362380981445</v>
+        <v>0.01562809944152832</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>2304</v>
       </c>
       <c r="B47">
-        <v>0.01591181755065918</v>
+        <v>0.01563262939453125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>2401</v>
       </c>
       <c r="B48">
-        <v>0.01566576957702637</v>
+        <v>0.02317357063293457</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>2500</v>
       </c>
       <c r="B49">
-        <v>0.01562190055847168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>2601</v>
       </c>
       <c r="B50">
-        <v>0.01562142372131348</v>
+        <v>0.01561689376831055</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>2704</v>
       </c>
       <c r="B51">
-        <v>0.01561951637268066</v>
+        <v>0.01560521125793457</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>2809</v>
       </c>
       <c r="B52">
-        <v>0.01562047004699707</v>
+        <v>0.01562213897705078</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>2916</v>
       </c>
       <c r="B53">
-        <v>0.01562047004699707</v>
+        <v>0.01562237739562988</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>3025</v>
       </c>
       <c r="B54">
-        <v>0.01566529273986816</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>3136</v>
       </c>
       <c r="B55">
-        <v>0.01561450958251953</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>3249</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.01557326316833496</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>3364</v>
       </c>
       <c r="B57">
-        <v>0.01566195487976074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>3481</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.01562309265136719</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>3600</v>
       </c>
       <c r="B59">
-        <v>0.01556801795959473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>3721</v>
       </c>
       <c r="B60">
-        <v>0.0156242847442627</v>
+        <v>0.01564860343933105</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>3844</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.01562047004699707</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>3969</v>
       </c>
       <c r="B62">
-        <v>0.01561975479125977</v>
+        <v>0.0156257152557373</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>4096</v>
       </c>
       <c r="B63">
-        <v>0.008020401000976562</v>
+        <v>0.01558113098144531</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>4225</v>
       </c>
       <c r="B64">
-        <v>0.01562070846557617</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>4356</v>
       </c>
       <c r="B65">
-        <v>0.01566553115844727</v>
+        <v>0.01561379432678223</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>4489</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.01562905311584473</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>4624</v>
       </c>
       <c r="B67">
-        <v>0.01557779312133789</v>
+        <v>0.009238243103027344</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>4761</v>
       </c>
       <c r="B68">
-        <v>0.01562881469726562</v>
+        <v>0.01562786102294922</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>4900</v>
       </c>
       <c r="B69">
-        <v>0.01566696166992188</v>
+        <v>0.01562333106994629</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>5041</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.01562809944152832</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>5184</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.01567578315734863</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>5329</v>
       </c>
       <c r="B72">
-        <v>0.01558446884155273</v>
+        <v>0.01567411422729492</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>5476</v>
       </c>
       <c r="B73">
-        <v>0.01563191413879395</v>
+        <v>0.01562070846557617</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>5625</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.01563119888305664</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>5776</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.01565313339233398</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>5929</v>
       </c>
       <c r="B76">
-        <v>0.0167076587677002</v>
+        <v>0.01563072204589844</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>6084</v>
       </c>
       <c r="B77">
-        <v>0.01562190055847168</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>6241</v>
       </c>
       <c r="B78">
-        <v>0.01557278633117676</v>
+        <v>0.03119134902954102</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>6400</v>
       </c>
       <c r="B79">
-        <v>0.006981134414672852</v>
+        <v>0.01562380790710449</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>6561</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.01562166213989258</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>6724</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.01562142372131348</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>6889</v>
       </c>
       <c r="B82">
-        <v>0.01557826995849609</v>
+        <v>0.01567244529724121</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>7056</v>
       </c>
       <c r="B83">
-        <v>0.01562166213989258</v>
+        <v>0.01561927795410156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>7225</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.01562094688415527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>7396</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.01562380790710449</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>7569</v>
       </c>
       <c r="B86">
-        <v>0.01557588577270508</v>
+        <v>0.01401209831237793</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>7921</v>
       </c>
       <c r="B88">
-        <v>0.01562070846557617</v>
+        <v>0.01558065414428711</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>8100</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.01558637619018555</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>8281</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.01566386222839355</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>8464</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.01562142372131348</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>8649</v>
       </c>
       <c r="B92">
-        <v>0.007980108261108398</v>
+        <v>0.03124523162841797</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>8836</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>9025</v>
       </c>
       <c r="B94">
-        <v>0.006980419158935547</v>
+        <v>0.01562166213989258</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>9216</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.01562619209289551</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>9409</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0386652946472168</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>9604</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0155789852142334</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>9801</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.0156242847442627</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>10000</v>
       </c>
       <c r="B99">
-        <v>0.0156705379486084</v>
+        <v>0.01566624641418457</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>0.124971866607666</v>
+        <v>0.1093990802764893</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1093490123748779</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.1107456684112549</v>
+        <v>0.1093502044677734</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.1093490123748779</v>
+        <v>0.1093506813049316</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>0.1093487739562988</v>
+        <v>0.1093523502349854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.1249291896820068</v>
+        <v>0.1250112056732178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>0.1093506813049316</v>
+        <v>0.1093101501464844</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.1093075275421143</v>
+        <v>0.08041691780090332</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.1096267700195312</v>
+        <v>0.1093943119049072</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>0.09601211547851562</v>
+        <v>0.07806253433227539</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>144</v>
       </c>
       <c r="B11">
-        <v>0.1093997955322266</v>
+        <v>0.116553783416748</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>169</v>
       </c>
       <c r="B12">
-        <v>0.1093511581420898</v>
+        <v>0.09372925758361816</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>196</v>
       </c>
       <c r="B13">
-        <v>0.09377336502075195</v>
+        <v>0.1093499660491943</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>225</v>
       </c>
       <c r="B14">
-        <v>0.06383323669433594</v>
+        <v>0.08032727241516113</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>256</v>
       </c>
       <c r="B15">
-        <v>0.1293253898620605</v>
+        <v>0.1093490123748779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>289</v>
       </c>
       <c r="B16">
-        <v>0.07810664176940918</v>
+        <v>0.0936892032623291</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>324</v>
       </c>
       <c r="B17">
-        <v>0.1093490123748779</v>
+        <v>0.0944216251373291</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>361</v>
       </c>
       <c r="B18">
-        <v>0.09368562698364258</v>
+        <v>0.0780632495880127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <v>0.09337544441223145</v>
+        <v>0.09696745872497559</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>441</v>
       </c>
       <c r="B20">
-        <v>0.1074368953704834</v>
+        <v>0.09372329711914062</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>484</v>
       </c>
       <c r="B21">
-        <v>0.09377217292785645</v>
+        <v>0.09372663497924805</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>529</v>
       </c>
       <c r="B22">
-        <v>0.1094949245452881</v>
+        <v>0.1217019557952881</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>576</v>
       </c>
       <c r="B23">
-        <v>0.09368014335632324</v>
+        <v>0.07815051078796387</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>625</v>
       </c>
       <c r="B24">
-        <v>0.1114938259124756</v>
+        <v>0.1633913516998291</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>676</v>
       </c>
       <c r="B25">
-        <v>0.09681558609008789</v>
+        <v>0.09601378440856934</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>729</v>
       </c>
       <c r="B26">
-        <v>0.1173801422119141</v>
+        <v>0.07810449600219727</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>784</v>
       </c>
       <c r="B27">
-        <v>0.07815217971801758</v>
+        <v>0.07277059555053711</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>841</v>
       </c>
       <c r="B28">
-        <v>0.1093924045562744</v>
+        <v>0.09376955032348633</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>900</v>
       </c>
       <c r="B29">
-        <v>0.07806181907653809</v>
+        <v>0.09367704391479492</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>961</v>
       </c>
       <c r="B30">
-        <v>0.1093506813049316</v>
+        <v>0.09229588508605957</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>1024</v>
       </c>
       <c r="B31">
-        <v>0.09372782707214355</v>
+        <v>0.09377455711364746</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>1089</v>
       </c>
       <c r="B32">
-        <v>0.09372806549072266</v>
+        <v>0.09373188018798828</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>1156</v>
       </c>
       <c r="B33">
-        <v>0.06248283386230469</v>
+        <v>0.08846735954284668</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>1225</v>
       </c>
       <c r="B34">
-        <v>0.1093475818634033</v>
+        <v>0.1405932903289795</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>1296</v>
       </c>
       <c r="B35">
-        <v>0.07810378074645996</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>1369</v>
       </c>
       <c r="B36">
-        <v>0.09372735023498535</v>
+        <v>0.1235809326171875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>1444</v>
       </c>
       <c r="B37">
-        <v>0.06248378753662109</v>
+        <v>0.1117162704467773</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>1521</v>
       </c>
       <c r="B38">
-        <v>0.1093499660491943</v>
+        <v>0.1419672966003418</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>1600</v>
       </c>
       <c r="B39">
-        <v>0.07806229591369629</v>
+        <v>0.111600399017334</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>1681</v>
       </c>
       <c r="B40">
-        <v>0.09368085861206055</v>
+        <v>0.1407644748687744</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>1764</v>
       </c>
       <c r="B41">
-        <v>0.03124165534973145</v>
+        <v>0.1250147819519043</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>1849</v>
       </c>
       <c r="B42">
-        <v>0.07666444778442383</v>
+        <v>0.1252171993255615</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>1936</v>
       </c>
       <c r="B43">
-        <v>0.01830911636352539</v>
+        <v>0.09377002716064453</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>2025</v>
       </c>
       <c r="B44">
-        <v>0.06249094009399414</v>
+        <v>0.09372711181640625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>2116</v>
       </c>
       <c r="B45">
-        <v>0.03124237060546875</v>
+        <v>0.07978248596191406</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>2209</v>
       </c>
       <c r="B46">
-        <v>0.0780634880065918</v>
+        <v>0.07810664176940918</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>2304</v>
       </c>
       <c r="B47">
-        <v>0.09403586387634277</v>
+        <v>0.07805848121643066</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>2401</v>
       </c>
       <c r="B48">
-        <v>0.0624392032623291</v>
+        <v>0.124971866607666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>2500</v>
       </c>
       <c r="B49">
-        <v>0.09372830390930176</v>
+        <v>0.09817934036254883</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>2601</v>
       </c>
       <c r="B50">
-        <v>0.07805466651916504</v>
+        <v>0.07811260223388672</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>2704</v>
       </c>
       <c r="B51">
-        <v>0.09646201133728027</v>
+        <v>0.09373927116394043</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>2809</v>
       </c>
       <c r="B52">
-        <v>0.03124189376831055</v>
+        <v>0.09282565116882324</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>2916</v>
       </c>
       <c r="B53">
-        <v>0.1093504428863525</v>
+        <v>0.07814741134643555</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>3025</v>
       </c>
       <c r="B54">
-        <v>0.06598019599914551</v>
+        <v>0.1250231266021729</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>3136</v>
       </c>
       <c r="B55">
-        <v>0.06252861022949219</v>
+        <v>0.08992815017700195</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>3249</v>
       </c>
       <c r="B56">
-        <v>0.04686236381530762</v>
+        <v>0.09493803977966309</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>3364</v>
       </c>
       <c r="B57">
-        <v>0.09537458419799805</v>
+        <v>0.1050446033477783</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>3481</v>
       </c>
       <c r="B58">
-        <v>0.06252479553222656</v>
+        <v>0.09373211860656738</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>3600</v>
       </c>
       <c r="B59">
-        <v>0.03124237060546875</v>
+        <v>0.09377074241638184</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>3721</v>
       </c>
       <c r="B60">
-        <v>0.09261465072631836</v>
+        <v>0.08033442497253418</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>3844</v>
       </c>
       <c r="B61">
-        <v>0.09372687339782715</v>
+        <v>0.09373140335083008</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>3969</v>
       </c>
       <c r="B62">
-        <v>0.04686546325683594</v>
+        <v>0.0781102180480957</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>4096</v>
       </c>
       <c r="B63">
-        <v>0.03076958656311035</v>
+        <v>0.09377360343933105</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>4225</v>
       </c>
       <c r="B64">
-        <v>0.0624852180480957</v>
+        <v>0.08446002006530762</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>4356</v>
       </c>
       <c r="B65">
-        <v>0.0624392032623291</v>
+        <v>0.07809948921203613</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>4489</v>
       </c>
       <c r="B66">
-        <v>0.0340418815612793</v>
+        <v>0.09368491172790527</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>4624</v>
       </c>
       <c r="B67">
-        <v>0.03124237060546875</v>
+        <v>0.07810831069946289</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>4761</v>
       </c>
       <c r="B68">
-        <v>0.0312345027923584</v>
+        <v>0.07810640335083008</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>4900</v>
       </c>
       <c r="B69">
-        <v>0.06917095184326172</v>
+        <v>0.09377193450927734</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>5041</v>
       </c>
       <c r="B70">
-        <v>0.01566576957702637</v>
+        <v>0.0937187671661377</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>5184</v>
       </c>
       <c r="B71">
-        <v>0.04686927795410156</v>
+        <v>0.0937192440032959</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>5329</v>
       </c>
       <c r="B72">
-        <v>0.09502387046813965</v>
+        <v>0.07810378074645996</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>5476</v>
       </c>
       <c r="B73">
-        <v>0.03119802474975586</v>
+        <v>0.1428432464599609</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>5625</v>
       </c>
       <c r="B74">
-        <v>0.04686307907104492</v>
+        <v>0.09367585182189941</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>5776</v>
       </c>
       <c r="B75">
-        <v>0.04690289497375488</v>
+        <v>0.07812142372131348</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>5929</v>
       </c>
       <c r="B76">
-        <v>0.05530834197998047</v>
+        <v>0.07809996604919434</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>6084</v>
       </c>
       <c r="B77">
-        <v>0.03128361701965332</v>
+        <v>0.07810139656066895</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>6241</v>
       </c>
       <c r="B78">
-        <v>0.03128695487976074</v>
+        <v>0.1026709079742432</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>6400</v>
       </c>
       <c r="B79">
-        <v>0.02490973472595215</v>
+        <v>0.1093497276306152</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>6561</v>
       </c>
       <c r="B80">
-        <v>0.04681563377380371</v>
+        <v>0.09367823600769043</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>6724</v>
       </c>
       <c r="B81">
-        <v>0.04686450958251953</v>
+        <v>0.1562132835388184</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>6889</v>
       </c>
       <c r="B82">
-        <v>0.07810544967651367</v>
+        <v>0.1418850421905518</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>7056</v>
       </c>
       <c r="B83">
-        <v>0.04922842979431152</v>
+        <v>0.1106266975402832</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>7225</v>
       </c>
       <c r="B84">
-        <v>0.04686403274536133</v>
+        <v>0.09846949577331543</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>7396</v>
       </c>
       <c r="B85">
-        <v>0.03124260902404785</v>
+        <v>0.08126544952392578</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>7569</v>
       </c>
       <c r="B86">
-        <v>0.03129243850708008</v>
+        <v>0.09328556060791016</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>7744</v>
       </c>
       <c r="B87">
-        <v>0.03124284744262695</v>
+        <v>0.1093478202819824</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>7921</v>
       </c>
       <c r="B88">
-        <v>0.03128910064697266</v>
+        <v>0.09372615814208984</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>8100</v>
       </c>
       <c r="B89">
-        <v>0.01565909385681152</v>
+        <v>0.09372901916503906</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>8281</v>
       </c>
       <c r="B90">
-        <v>0.04685258865356445</v>
+        <v>0.1249265670776367</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>8464</v>
       </c>
       <c r="B91">
-        <v>0.06498074531555176</v>
+        <v>0.1093485355377197</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>8649</v>
       </c>
       <c r="B92">
-        <v>0.03340601921081543</v>
+        <v>0.1434073448181152</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>8836</v>
       </c>
       <c r="B93">
-        <v>0.03128623962402344</v>
+        <v>0.2200305461883545</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>9025</v>
       </c>
       <c r="B94">
-        <v>0.03989386558532715</v>
+        <v>0.1562600135803223</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>9216</v>
       </c>
       <c r="B95">
-        <v>0.04686403274536133</v>
+        <v>0.1249768733978271</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>9409</v>
       </c>
       <c r="B96">
-        <v>0.04686427116394043</v>
+        <v>0.1042938232421875</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>9604</v>
       </c>
       <c r="B97">
-        <v>0.04690861701965332</v>
+        <v>0.07814884185791016</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>9801</v>
       </c>
       <c r="B98">
-        <v>0.04686260223388672</v>
+        <v>0.09367609024047852</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>10000</v>
       </c>
       <c r="B99">
-        <v>0.04095315933227539</v>
+        <v>0.1249251365661621</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>0.01562261581420898</v>
+        <v>0.01561880111694336</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.03124165534973145</v>
+        <v>0.03120088577270508</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.02597522735595703</v>
+        <v>0.01562142372131348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.01562118530273438</v>
+        <v>0.03119015693664551</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>0.01566219329833984</v>
+        <v>0.03124165534973145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.03128600120544434</v>
+        <v>0.01562666893005371</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>0.03128528594970703</v>
+        <v>0.03124260902404785</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.03124284744262695</v>
+        <v>0.03124523162841797</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.02692794799804688</v>
+        <v>0.03124260902404785</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>0.03124380111694336</v>
+        <v>0.03124070167541504</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>144</v>
       </c>
       <c r="B11">
-        <v>0.03119421005249023</v>
+        <v>0.01566720008850098</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>169</v>
       </c>
       <c r="B12">
-        <v>0.01562070846557617</v>
+        <v>0.01561951637268066</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>196</v>
       </c>
       <c r="B13">
-        <v>0.03124022483825684</v>
+        <v>0.03119635581970215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>225</v>
       </c>
       <c r="B14">
-        <v>0.01557493209838867</v>
+        <v>0.03120207786560059</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>256</v>
       </c>
       <c r="B15">
-        <v>0.02692937850952148</v>
+        <v>0.01557493209838867</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>289</v>
       </c>
       <c r="B16">
-        <v>0.03119850158691406</v>
+        <v>0.01561975479125977</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>324</v>
       </c>
       <c r="B17">
-        <v>0.01562118530273438</v>
+        <v>0.01716971397399902</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>361</v>
       </c>
       <c r="B18">
-        <v>0.01562166213989258</v>
+        <v>0.03128623962402344</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <v>0.03128433227539062</v>
+        <v>0.01562094688415527</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>441</v>
       </c>
       <c r="B20">
-        <v>0.0188593864440918</v>
+        <v>0.03119874000549316</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>484</v>
       </c>
       <c r="B21">
-        <v>0.03124451637268066</v>
+        <v>0.0155789852142334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>529</v>
       </c>
       <c r="B22">
-        <v>0.01816463470458984</v>
+        <v>0.02013492584228516</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2953,7 +2953,7 @@
         <v>625</v>
       </c>
       <c r="B24">
-        <v>0.01566743850708008</v>
+        <v>0.04686355590820312</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>676</v>
       </c>
       <c r="B25">
-        <v>0.03687882423400879</v>
+        <v>0.01566767692565918</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2969,7 +2969,7 @@
         <v>729</v>
       </c>
       <c r="B26">
-        <v>0.01557707786560059</v>
+        <v>0.01562333106994629</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>784</v>
       </c>
       <c r="B27">
-        <v>0.01562285423278809</v>
+        <v>0.03128647804260254</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>841</v>
       </c>
       <c r="B28">
-        <v>0.01557731628417969</v>
+        <v>0.01558089256286621</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2993,7 +2993,7 @@
         <v>900</v>
       </c>
       <c r="B29">
-        <v>0.01567244529724121</v>
+        <v>0.03124237060546875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>961</v>
       </c>
       <c r="B30">
-        <v>0.01562094688415527</v>
+        <v>0.01914334297180176</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>1024</v>
       </c>
       <c r="B31">
-        <v>0.01562166213989258</v>
+        <v>0.01557540893554688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>1089</v>
       </c>
       <c r="B32">
-        <v>0.03124070167541504</v>
+        <v>0.03126764297485352</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3025,7 +3025,7 @@
         <v>1156</v>
       </c>
       <c r="B33">
-        <v>0.01562333106994629</v>
+        <v>0.02289342880249023</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>1225</v>
       </c>
       <c r="B34">
-        <v>0.03848648071289062</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>1296</v>
       </c>
       <c r="B35">
-        <v>0.03124403953552246</v>
+        <v>0.03124308586120605</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3049,7 +3049,7 @@
         <v>1369</v>
       </c>
       <c r="B36">
-        <v>0.01562047004699707</v>
+        <v>0.0624852180480957</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>1444</v>
       </c>
       <c r="B37">
-        <v>0.01567530632019043</v>
+        <v>0.03119874000549316</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>1521</v>
       </c>
       <c r="B38">
-        <v>0.03128480911254883</v>
+        <v>0.03124260902404785</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>1600</v>
       </c>
       <c r="B39">
-        <v>0.01562237739562988</v>
+        <v>0.03120160102844238</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>1681</v>
       </c>
       <c r="B40">
-        <v>0.0156702995300293</v>
+        <v>0.01784205436706543</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>1764</v>
       </c>
       <c r="B41">
-        <v>0.01562237739562988</v>
+        <v>0.0338599681854248</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3097,7 +3097,7 @@
         <v>1849</v>
       </c>
       <c r="B42">
-        <v>0.03124213218688965</v>
+        <v>0.03128743171691895</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3105,7 +3105,7 @@
         <v>1936</v>
       </c>
       <c r="B43">
-        <v>0.01565980911254883</v>
+        <v>0.01557660102844238</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3113,7 +3113,7 @@
         <v>2025</v>
       </c>
       <c r="B44">
-        <v>0.01562738418579102</v>
+        <v>0.03120064735412598</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3121,7 +3121,7 @@
         <v>2116</v>
       </c>
       <c r="B45">
-        <v>0.01562213897705078</v>
+        <v>0.01562023162841797</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>2209</v>
       </c>
       <c r="B46">
-        <v>0.03124403953552246</v>
+        <v>0.01561141014099121</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>2304</v>
       </c>
       <c r="B47">
-        <v>0.01562047004699707</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>2401</v>
       </c>
       <c r="B48">
-        <v>0.01562333106994629</v>
+        <v>0.03124380111694336</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>2500</v>
       </c>
       <c r="B49">
-        <v>0.03128504753112793</v>
+        <v>0.01221036911010742</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>2601</v>
       </c>
       <c r="B50">
-        <v>0.01561999320983887</v>
+        <v>0.01561546325683594</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>2704</v>
       </c>
       <c r="B51">
-        <v>0.01566815376281738</v>
+        <v>0.03119230270385742</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>2809</v>
       </c>
       <c r="B52">
-        <v>0.01562333106994629</v>
+        <v>0.01886916160583496</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>2916</v>
       </c>
       <c r="B53">
-        <v>0.03128480911254883</v>
+        <v>0.03124380111694336</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>3025</v>
       </c>
       <c r="B54">
-        <v>0.01557707786560059</v>
+        <v>0.01557016372680664</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3201,7 +3201,7 @@
         <v>3136</v>
       </c>
       <c r="B55">
-        <v>0.01557707786560059</v>
+        <v>0.06252789497375488</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3209,7 +3209,7 @@
         <v>3249</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.03129339218139648</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>3364</v>
       </c>
       <c r="B57">
-        <v>0.01617598533630371</v>
+        <v>0.02094388008117676</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>3481</v>
       </c>
       <c r="B58">
-        <v>0.01558208465576172</v>
+        <v>0.01561665534973145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3233,7 +3233,7 @@
         <v>3600</v>
       </c>
       <c r="B59">
-        <v>0.01562094688415527</v>
+        <v>0.01558041572570801</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3241,7 +3241,7 @@
         <v>3721</v>
       </c>
       <c r="B60">
-        <v>0.01792120933532715</v>
+        <v>0.01562190055847168</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>3844</v>
       </c>
       <c r="B61">
-        <v>0.01562023162841797</v>
+        <v>0.01562333106994629</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>3969</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.03119373321533203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>4096</v>
       </c>
       <c r="B63">
-        <v>0.01566267013549805</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>4225</v>
       </c>
       <c r="B64">
-        <v>0.01562118530273438</v>
+        <v>0.02094101905822754</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>4356</v>
       </c>
       <c r="B65">
-        <v>0.01566600799560547</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>4489</v>
       </c>
       <c r="B66">
-        <v>0.006026983261108398</v>
+        <v>0.01562070846557617</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3297,7 +3297,7 @@
         <v>4624</v>
       </c>
       <c r="B67">
-        <v>0.01566672325134277</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>4761</v>
       </c>
       <c r="B68">
-        <v>0.01557826995849609</v>
+        <v>0.03458714485168457</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>4900</v>
       </c>
       <c r="B69">
-        <v>0.0033111572265625</v>
+        <v>0.01557588577270508</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>5041</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.01562094688415527</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>5184</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>5329</v>
       </c>
       <c r="B72">
-        <v>0.01566529273986816</v>
+        <v>0.03124594688415527</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>5625</v>
       </c>
       <c r="B74">
-        <v>0.01566648483276367</v>
+        <v>0.0156705379486084</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>5776</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.03124475479125977</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>6084</v>
       </c>
       <c r="B77">
-        <v>0.01558017730712891</v>
+        <v>0.03124022483825684</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>6241</v>
       </c>
       <c r="B78">
-        <v>0.01563024520874023</v>
+        <v>0.03124308586120605</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>6400</v>
       </c>
       <c r="B79">
-        <v>0.01558113098144531</v>
+        <v>0.04686236381530762</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>6561</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.03123998641967773</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>6724</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.04686427116394043</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>6889</v>
       </c>
       <c r="B82">
-        <v>0.01566529273986816</v>
+        <v>0.02592754364013672</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>7056</v>
       </c>
       <c r="B83">
-        <v>0.01291942596435547</v>
+        <v>0.01565885543823242</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>7225</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>7396</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.03124332427978516</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>7569</v>
       </c>
       <c r="B86">
-        <v>0.01557207107543945</v>
+        <v>0.0156254768371582</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>7744</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.03124403953552246</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>7921</v>
       </c>
       <c r="B88">
-        <v>0.01561951637268066</v>
+        <v>0.03124380111694336</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>8100</v>
       </c>
       <c r="B89">
-        <v>0.01558089256286621</v>
+        <v>0.01566290855407715</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>8281</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>8464</v>
       </c>
       <c r="B91">
-        <v>0.008976221084594727</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>8649</v>
       </c>
       <c r="B92">
-        <v>0.01558542251586914</v>
+        <v>0.03124284744262695</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>8836</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>9025</v>
       </c>
       <c r="B94">
-        <v>0.008976221084594727</v>
+        <v>0.03124713897705078</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>9216</v>
       </c>
       <c r="B95">
-        <v>0.01562166213989258</v>
+        <v>0.04694318771362305</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>9409</v>
       </c>
       <c r="B96">
-        <v>0.01566624641418457</v>
+        <v>0.03119897842407227</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>9604</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.03124451637268066</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>9801</v>
       </c>
       <c r="B98">
-        <v>0.01562166213989258</v>
+        <v>0.01562118530273438</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>10000</v>
       </c>
       <c r="B99">
-        <v>0.008235931396484375</v>
+        <v>0.03124237060546875</v>
       </c>
     </row>
   </sheetData>
